--- a/Leon_Contribution_November.xlsx
+++ b/Leon_Contribution_November.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\OneDrive_1_2024-11-18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12192433-25C6-4788-822A-E7B2914E13FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D49DC84-220B-49D2-812E-D7438DCF38E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="166">
   <si>
     <t>Name:</t>
   </si>
@@ -696,10 +696,6 @@
   </si>
   <si>
     <t>compressive yield strength</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specify the intermetallic phase</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1480,33 +1476,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1556,6 +1525,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1842,7 +1838,7 @@
   <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1878,19 +1874,19 @@
       <c r="B2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1900,17 +1896,17 @@
       <c r="B3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1928,43 +1924,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="68" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1975,19 +1971,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="51"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2032,7 +2028,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="52"/>
+      <c r="O7" s="70"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2045,35 +2041,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="73" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="74"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -3130,7 +3126,7 @@
         <v>102</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>75</v>
@@ -3166,7 +3162,7 @@
         <v>104</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>75</v>
@@ -3202,7 +3198,7 @@
         <v>105</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>75</v>
@@ -3238,7 +3234,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>75</v>
@@ -3274,7 +3270,7 @@
         <v>107</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>75</v>
@@ -3310,7 +3306,7 @@
         <v>108</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>75</v>
@@ -3346,7 +3342,7 @@
         <v>109</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>75</v>
@@ -3382,7 +3378,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>75</v>
@@ -3418,7 +3414,7 @@
         <v>111</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>75</v>
@@ -3454,7 +3450,7 @@
         <v>112</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>75</v>
@@ -3490,7 +3486,7 @@
         <v>113</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>75</v>
@@ -3526,7 +3522,7 @@
         <v>114</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>75</v>
@@ -3562,7 +3558,7 @@
         <v>115</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>75</v>
@@ -3598,7 +3594,7 @@
         <v>116</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>75</v>
@@ -3634,7 +3630,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>75</v>
@@ -3670,7 +3666,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>75</v>
@@ -3708,7 +3704,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>75</v>
@@ -3744,7 +3740,7 @@
         <v>104</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>75</v>
@@ -3780,7 +3776,7 @@
         <v>105</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="32" t="s">
         <v>75</v>
@@ -3816,7 +3812,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>75</v>
@@ -3852,7 +3848,7 @@
         <v>107</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>75</v>
@@ -3888,7 +3884,7 @@
         <v>108</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>75</v>
@@ -3924,7 +3920,7 @@
         <v>109</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>75</v>
@@ -3960,7 +3956,7 @@
         <v>110</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>75</v>
@@ -3996,7 +3992,7 @@
         <v>111</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>75</v>
@@ -4032,7 +4028,7 @@
         <v>112</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" s="32" t="s">
         <v>75</v>
@@ -4068,7 +4064,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>75</v>
@@ -4104,7 +4100,7 @@
         <v>114</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>75</v>
@@ -4750,7 +4746,7 @@
         <v>149</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>75</v>
@@ -4779,7 +4775,7 @@
         <v>154</v>
       </c>
       <c r="N82" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.3">
@@ -4788,7 +4784,7 @@
         <v>150</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>75</v>
@@ -4817,7 +4813,7 @@
         <v>154</v>
       </c>
       <c r="N83" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="16.3">
@@ -4826,7 +4822,7 @@
         <v>151</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>75</v>
@@ -4855,7 +4851,7 @@
         <v>154</v>
       </c>
       <c r="N84" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="16.3">
@@ -4864,7 +4860,7 @@
         <v>152</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>75</v>
@@ -4893,7 +4889,7 @@
         <v>154</v>
       </c>
       <c r="N85" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="16.3">
@@ -4902,7 +4898,7 @@
         <v>153</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D86" s="32" t="s">
         <v>75</v>
@@ -4931,7 +4927,7 @@
         <v>154</v>
       </c>
       <c r="N86" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="16.3">
@@ -4940,7 +4936,7 @@
         <v>149</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>75</v>
@@ -4964,10 +4960,10 @@
         <v>79</v>
       </c>
       <c r="M87" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N87" s="44" t="s">
         <v>159</v>
-      </c>
-      <c r="N87" s="44" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="16.3">
@@ -4976,7 +4972,7 @@
         <v>150</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" s="32" t="s">
         <v>75</v>
@@ -5000,10 +4996,10 @@
         <v>79</v>
       </c>
       <c r="M88" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N88" s="44" t="s">
         <v>159</v>
-      </c>
-      <c r="N88" s="44" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="16.3">
@@ -5012,7 +5008,7 @@
         <v>151</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" s="32" t="s">
         <v>75</v>
@@ -5036,10 +5032,10 @@
         <v>79</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N89" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16.3">
@@ -5048,7 +5044,7 @@
         <v>152</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D90" s="32" t="s">
         <v>75</v>
@@ -5072,10 +5068,10 @@
         <v>79</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N90" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="16.3">
@@ -5084,7 +5080,7 @@
         <v>153</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D91" s="32" t="s">
         <v>75</v>
@@ -5108,10 +5104,10 @@
         <v>79</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N91" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="16.3">
@@ -5120,7 +5116,7 @@
         <v>149</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D92" s="32" t="s">
         <v>75</v>
@@ -5144,10 +5140,10 @@
         <v>79</v>
       </c>
       <c r="M92" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N92" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="16.3">
@@ -5156,7 +5152,7 @@
         <v>150</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D93" s="32" t="s">
         <v>75</v>
@@ -5180,10 +5176,10 @@
         <v>79</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N93" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.3">
@@ -5192,7 +5188,7 @@
         <v>151</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D94" s="32" t="s">
         <v>75</v>
@@ -5216,10 +5212,10 @@
         <v>79</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N94" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="16.3">
@@ -5228,7 +5224,7 @@
         <v>152</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" s="32" t="s">
         <v>75</v>
@@ -5252,10 +5248,10 @@
         <v>79</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N95" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="16.3">
@@ -5264,7 +5260,7 @@
         <v>153</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>75</v>
@@ -5288,10 +5284,10 @@
         <v>79</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N96" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.3">
@@ -5300,7 +5296,7 @@
         <v>151</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" s="32" t="s">
         <v>75</v>
@@ -5324,10 +5320,10 @@
         <v>73</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N97" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="16.3">
@@ -5336,7 +5332,7 @@
         <v>152</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D98" s="32" t="s">
         <v>75</v>
@@ -5360,10 +5356,10 @@
         <v>73</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N98" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.3">
@@ -5372,7 +5368,7 @@
         <v>153</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D99" s="32" t="s">
         <v>75</v>
@@ -5396,10 +5392,10 @@
         <v>73</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N99" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="16.3">
@@ -5419,9 +5415,7 @@
     </row>
     <row r="101" spans="1:14" ht="16.3">
       <c r="A101" s="35"/>
-      <c r="B101" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="B101" s="19"/>
       <c r="C101" s="32"/>
       <c r="D101" s="32"/>
       <c r="E101" s="19"/>
@@ -10148,6 +10142,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10162,11 +10161,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/Leon_Contribution_November.xlsx
+++ b/Leon_Contribution_November.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D49DC84-220B-49D2-812E-D7438DCF38E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F97021-C9C2-477A-A58E-8B86CDCA6508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,10 +605,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>compressive fracture strain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>compressive fracture stress</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -730,6 +726,10 @@
   </si>
   <si>
     <t>BCC+AlLi+Li2MgAl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>compressive ductility</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1476,6 +1476,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1525,33 +1552,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1837,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1874,19 +1874,19 @@
       <c r="B2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1896,17 +1896,17 @@
       <c r="B3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1924,43 +1924,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="50" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1971,19 +1971,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="69"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2028,7 +2028,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="70"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2041,35 +2041,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="65"/>
+      <c r="N8" s="74"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="71" t="s">
+      <c r="P8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="73"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>63</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>78</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>63</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>78</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>78</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>78</v>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>78</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>78</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="47" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>78</v>
@@ -3126,7 +3126,7 @@
         <v>102</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>75</v>
@@ -3162,7 +3162,7 @@
         <v>104</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>75</v>
@@ -3198,7 +3198,7 @@
         <v>105</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>75</v>
@@ -3234,7 +3234,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>75</v>
@@ -3270,7 +3270,7 @@
         <v>107</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>75</v>
@@ -3306,7 +3306,7 @@
         <v>108</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>75</v>
@@ -3342,7 +3342,7 @@
         <v>109</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>75</v>
@@ -3378,7 +3378,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>75</v>
@@ -3414,7 +3414,7 @@
         <v>111</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>75</v>
@@ -3450,7 +3450,7 @@
         <v>112</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>75</v>
@@ -3486,7 +3486,7 @@
         <v>113</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>75</v>
@@ -3522,7 +3522,7 @@
         <v>114</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>75</v>
@@ -3558,7 +3558,7 @@
         <v>115</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>75</v>
@@ -3594,7 +3594,7 @@
         <v>116</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>75</v>
@@ -3630,7 +3630,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>75</v>
@@ -3666,7 +3666,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>75</v>
@@ -3704,7 +3704,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>75</v>
@@ -3740,7 +3740,7 @@
         <v>104</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>75</v>
@@ -3776,7 +3776,7 @@
         <v>105</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="32" t="s">
         <v>75</v>
@@ -3812,7 +3812,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>75</v>
@@ -3848,7 +3848,7 @@
         <v>107</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>75</v>
@@ -3884,7 +3884,7 @@
         <v>108</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>75</v>
@@ -3920,7 +3920,7 @@
         <v>109</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>75</v>
@@ -3956,7 +3956,7 @@
         <v>110</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>75</v>
@@ -3992,7 +3992,7 @@
         <v>111</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>75</v>
@@ -4028,7 +4028,7 @@
         <v>112</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62" s="32" t="s">
         <v>75</v>
@@ -4064,7 +4064,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>75</v>
@@ -4100,7 +4100,7 @@
         <v>114</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>75</v>
@@ -4439,8 +4439,8 @@
         <v>75</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="32" t="s">
-        <v>133</v>
+      <c r="F73" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G73" s="40" t="s">
         <v>78</v>
@@ -4455,10 +4455,10 @@
         <v>73</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N73" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.3">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G74" s="40" t="s">
         <v>78</v>
@@ -4488,10 +4488,10 @@
         <v>79</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N74" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.3">
@@ -4502,11 +4502,11 @@
         <v>132</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" s="19"/>
-      <c r="F75" s="32" t="s">
-        <v>133</v>
+      <c r="F75" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>78</v>
@@ -4521,10 +4521,10 @@
         <v>73</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N75" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.3">
@@ -4535,11 +4535,11 @@
         <v>132</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G76" s="40" t="s">
         <v>78</v>
@@ -4554,21 +4554,21 @@
         <v>79</v>
       </c>
       <c r="M76" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N76" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.3">
       <c r="B77" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="D77" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="32" t="s">
@@ -4590,21 +4590,21 @@
         <v>79</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N77" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.3">
       <c r="B78" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="32" t="s">
@@ -4626,21 +4626,21 @@
         <v>79</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N78" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.3">
       <c r="B79" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="32" t="s">
@@ -4662,21 +4662,21 @@
         <v>79</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N79" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.3">
       <c r="B80" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="32" t="s">
@@ -4698,21 +4698,21 @@
         <v>79</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N80" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16.3">
       <c r="B81" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="32" t="s">
@@ -4734,19 +4734,19 @@
         <v>79</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N81" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16.3">
       <c r="A82" s="35"/>
       <c r="B82" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>75</v>
@@ -4772,19 +4772,19 @@
         <v>96</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N82" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.3">
       <c r="A83" s="35"/>
       <c r="B83" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>75</v>
@@ -4810,19 +4810,19 @@
         <v>96</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N83" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="16.3">
       <c r="A84" s="35"/>
       <c r="B84" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>75</v>
@@ -4848,19 +4848,19 @@
         <v>95</v>
       </c>
       <c r="M84" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N84" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="16.3">
       <c r="A85" s="35"/>
       <c r="B85" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>75</v>
@@ -4886,19 +4886,19 @@
         <v>95</v>
       </c>
       <c r="M85" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N85" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="16.3">
       <c r="A86" s="35"/>
       <c r="B86" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D86" s="32" t="s">
         <v>75</v>
@@ -4924,26 +4924,26 @@
         <v>95</v>
       </c>
       <c r="M86" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N86" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="16.3">
       <c r="A87" s="35"/>
       <c r="B87" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G87" s="40" t="s">
         <v>78</v>
@@ -4960,26 +4960,26 @@
         <v>79</v>
       </c>
       <c r="M87" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N87" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="N87" s="44" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="16.3">
       <c r="A88" s="35"/>
       <c r="B88" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G88" s="40" t="s">
         <v>78</v>
@@ -4996,26 +4996,26 @@
         <v>79</v>
       </c>
       <c r="M88" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N88" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="N88" s="44" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="16.3">
       <c r="A89" s="35"/>
       <c r="B89" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D89" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G89" s="40" t="s">
         <v>78</v>
@@ -5032,26 +5032,26 @@
         <v>79</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N89" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16.3">
       <c r="A90" s="35"/>
       <c r="B90" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D90" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G90" s="40" t="s">
         <v>78</v>
@@ -5068,26 +5068,26 @@
         <v>79</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N90" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="16.3">
       <c r="A91" s="35"/>
       <c r="B91" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D91" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G91" s="40" t="s">
         <v>78</v>
@@ -5104,26 +5104,26 @@
         <v>79</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N91" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="16.3">
       <c r="A92" s="35"/>
       <c r="B92" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G92" s="40" t="s">
         <v>78</v>
@@ -5140,26 +5140,26 @@
         <v>79</v>
       </c>
       <c r="M92" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N92" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="16.3">
       <c r="A93" s="35"/>
       <c r="B93" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G93" s="40" t="s">
         <v>78</v>
@@ -5176,26 +5176,26 @@
         <v>79</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N93" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.3">
       <c r="A94" s="35"/>
       <c r="B94" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G94" s="40" t="s">
         <v>78</v>
@@ -5212,26 +5212,26 @@
         <v>79</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N94" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="16.3">
       <c r="A95" s="35"/>
       <c r="B95" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D95" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G95" s="40" t="s">
         <v>78</v>
@@ -5248,26 +5248,26 @@
         <v>79</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N95" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="16.3">
       <c r="A96" s="35"/>
       <c r="B96" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G96" s="40" t="s">
         <v>78</v>
@@ -5284,26 +5284,26 @@
         <v>79</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N96" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.3">
       <c r="A97" s="35"/>
       <c r="B97" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D97" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E97" s="19"/>
-      <c r="F97" s="32" t="s">
-        <v>133</v>
+      <c r="F97" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G97" s="40" t="s">
         <v>78</v>
@@ -5320,26 +5320,26 @@
         <v>73</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N97" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="16.3">
       <c r="A98" s="35"/>
       <c r="B98" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D98" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E98" s="19"/>
-      <c r="F98" s="32" t="s">
-        <v>133</v>
+      <c r="F98" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G98" s="40" t="s">
         <v>78</v>
@@ -5356,26 +5356,26 @@
         <v>73</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N98" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.3">
       <c r="A99" s="35"/>
       <c r="B99" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D99" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E99" s="19"/>
-      <c r="F99" s="32" t="s">
-        <v>133</v>
+      <c r="F99" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G99" s="40" t="s">
         <v>78</v>
@@ -5392,10 +5392,10 @@
         <v>73</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N99" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="16.3">
@@ -10142,11 +10142,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10161,6 +10156,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/Leon_Contribution_November.xlsx
+++ b/Leon_Contribution_November.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F97021-C9C2-477A-A58E-8B86CDCA6508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C7E0C-AFA4-4C8E-B097-980EFF3D3CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1476,33 +1476,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1552,6 +1525,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1837,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1874,19 +1874,19 @@
       <c r="B2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1896,17 +1896,17 @@
       <c r="B3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1924,43 +1924,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="68" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1971,19 +1971,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="51"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2028,7 +2028,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="52"/>
+      <c r="O7" s="70"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2041,35 +2041,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="73" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="74"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2303,7 +2303,7 @@
         <v>298</v>
       </c>
       <c r="J14" s="31">
-        <v>1700</v>
+        <v>1700000000</v>
       </c>
       <c r="K14" s="31">
         <v>50</v>
@@ -10142,6 +10142,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10156,11 +10161,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/Leon_Contribution_November.xlsx
+++ b/Leon_Contribution_November.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C7E0C-AFA4-4C8E-B097-980EFF3D3CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF7FA7-E359-45C2-A18F-6BE65E69196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="169">
   <si>
     <t>Name:</t>
   </si>
@@ -732,6 +732,30 @@
     <t>compressive ductility</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Fe22.5 Co10 Ni25 Cr15 Mn5 V10 Al2.5 Nb10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe20 Co10 Ni25 Cr15 Mn5 V10 Al2.5 Nb12.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Al Co Cu Cr Ti Ni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> Y</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -741,7 +765,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,8 +885,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,6 +939,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1476,6 +1513,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1527,32 +1591,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1837,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1874,19 +1937,19 @@
       <c r="B2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1896,17 +1959,17 @@
       <c r="B3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1924,43 +1987,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="50" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1971,19 +2034,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="69"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2028,7 +2091,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="70"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2041,35 +2104,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="65"/>
+      <c r="N8" s="74"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="71" t="s">
+      <c r="P8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="73"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2356,79 +2419,79 @@
       </c>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="16.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39" t="s">
+    <row r="16" spans="1:20" s="83" customFormat="1" ht="16.3">
+      <c r="A16" s="84"/>
+      <c r="B16" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="77"/>
+      <c r="F16" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="34">
+      <c r="H16" s="78"/>
+      <c r="I16" s="81">
         <v>298</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="82">
         <v>1192000000</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="39" t="s">
+      <c r="K16" s="82"/>
+      <c r="L16" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="40" t="s">
+      <c r="O16" s="77"/>
+    </row>
+    <row r="17" spans="1:15" s="83" customFormat="1" ht="16.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="77"/>
+      <c r="F17" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="34">
+      <c r="H17" s="78"/>
+      <c r="I17" s="81">
         <v>298</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="82">
         <v>3.54</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="39" t="s">
+      <c r="K17" s="82"/>
+      <c r="L17" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="19"/>
+      <c r="O17" s="77"/>
     </row>
     <row r="18" spans="1:15" ht="16.3">
       <c r="A18" s="36"/>
@@ -3395,7 +3458,7 @@
         <v>298</v>
       </c>
       <c r="J44" s="31">
-        <v>8100</v>
+        <v>8010</v>
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="19" t="s">
@@ -3480,75 +3543,75 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="32" t="s">
+    <row r="47" spans="1:14" s="83" customFormat="1" ht="16.3">
+      <c r="A47" s="76"/>
+      <c r="B47" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="46" t="s">
+      <c r="E47" s="77"/>
+      <c r="F47" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G47" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="34">
+      <c r="H47" s="78"/>
+      <c r="I47" s="81">
         <v>298</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="82">
         <v>7940</v>
       </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="19" t="s">
+      <c r="K47" s="82"/>
+      <c r="L47" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="M47" s="19" t="s">
+      <c r="M47" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="N47" s="77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="32" t="s">
+    <row r="48" spans="1:14" s="83" customFormat="1" ht="16.3">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="46" t="s">
+      <c r="E48" s="77"/>
+      <c r="F48" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="34">
+      <c r="H48" s="78"/>
+      <c r="I48" s="81">
         <v>298</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="82">
         <v>7960</v>
       </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="19" t="s">
+      <c r="K48" s="82"/>
+      <c r="L48" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="M48" s="19" t="s">
+      <c r="M48" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="77" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10142,11 +10205,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10161,8 +10219,33 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="A47:XFD47">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{D357D88A-2775-40B2-B73F-2173296B7938}"/>
   </hyperlinks>
@@ -10176,7 +10259,7 @@
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -10203,10 +10286,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.14000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="M2" t="s">
         <v>120</v>
@@ -10218,31 +10304,31 @@
     <row r="3" spans="1:14">
       <c r="B3">
         <f>B2/SUM(B2:J2)</f>
-        <v>0.23364485981308414</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C3">
         <f>C2/SUM(B2:J2)</f>
-        <v>0.23364485981308414</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D3">
         <f>D2/SUM(B2:J2)</f>
-        <v>0.23364485981308414</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E3">
         <f>E2/SUM(B2:J2)</f>
-        <v>0.23364485981308414</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F3">
         <f>F2/SUM(B2:J2)</f>
-        <v>3.2710280373831786E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G3">
         <f>G2/SUM(B2:J2)</f>
-        <v>3.2710280373831786E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H3">
         <f>H2/SUM(B2:J2)</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I3">
         <f>I2/SUM(B2:J2)</f>
@@ -10266,31 +10352,31 @@
       </c>
       <c r="B4" s="38">
         <f>B3*100</f>
-        <v>23.364485981308412</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="C4" s="38">
         <f t="shared" ref="C4:J4" si="0">C3*100</f>
-        <v>23.364485981308412</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="D4" s="38">
         <f t="shared" si="0"/>
-        <v>23.364485981308412</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="E4" s="38">
         <f t="shared" si="0"/>
-        <v>23.364485981308412</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="F4" s="38">
         <f t="shared" si="0"/>
-        <v>3.2710280373831786</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" si="0"/>
-        <v>3.2710280373831786</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="H4" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="I4" s="38">
         <f t="shared" si="0"/>
@@ -10311,7 +10397,7 @@
     <row r="5" spans="1:14">
       <c r="H5" s="38">
         <f>SUM(B4:G4)</f>
-        <v>100</v>
+        <v>85.714285714285694</v>
       </c>
       <c r="M5">
         <v>501</v>

--- a/Leon_Contribution_November.xlsx
+++ b/Leon_Contribution_November.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF7FA7-E359-45C2-A18F-6BE65E69196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB60D3B6-4921-432D-98DC-B2BE49FB25FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="170">
   <si>
     <t>Name:</t>
   </si>
@@ -756,6 +778,10 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>10.1016/j.matchar.2024.114393</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -765,7 +791,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +917,12 @@
       <name val="細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1382,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1513,32 +1545,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1591,32 +1622,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1900,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1937,19 +1970,19 @@
       <c r="B2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1959,17 +1992,17 @@
       <c r="B3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1987,43 +2020,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="80" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2034,19 +2067,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="51"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="81"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2091,7 +2124,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="52"/>
+      <c r="O7" s="82"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2104,35 +2137,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="73" t="s">
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="74"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="85"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2232,6 +2265,7 @@
         <v>70</v>
       </c>
       <c r="O10" s="19"/>
+      <c r="P10" s="88"/>
     </row>
     <row r="11" spans="1:20" ht="16.3">
       <c r="A11" s="36"/>
@@ -2269,6 +2303,10 @@
         <v>70</v>
       </c>
       <c r="O11" s="19"/>
+      <c r="P11" t="b" cm="1">
+        <f t="array" ref="P11">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A11:$O11))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A11:$O11))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="16.3">
       <c r="A12" s="36"/>
@@ -2306,6 +2344,10 @@
         <v>70</v>
       </c>
       <c r="O12" s="19"/>
+      <c r="P12" t="b" cm="1">
+        <f t="array" ref="P12">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A12:$O12))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A12:$O12))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="16.3">
       <c r="A13" s="36"/>
@@ -2342,6 +2384,10 @@
         <v>70</v>
       </c>
       <c r="O13" s="19"/>
+      <c r="P13" t="b" cm="1">
+        <f t="array" ref="P13">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A13:$O13))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A13:$O13))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="16.3">
       <c r="A14" s="36"/>
@@ -2381,6 +2427,10 @@
         <v>70</v>
       </c>
       <c r="O14" s="19"/>
+      <c r="P14" t="b" cm="1">
+        <f t="array" ref="P14">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A14:$O14))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A14:$O14))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="16.3">
       <c r="A15" s="36"/>
@@ -2418,82 +2468,94 @@
         <v>70</v>
       </c>
       <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:20" s="83" customFormat="1" ht="16.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="85" t="s">
+      <c r="P15" t="b" cm="1">
+        <f t="array" ref="P15">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A15:$O15))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A15:$O15))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="57" customFormat="1" ht="16.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="80" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="81">
+      <c r="H16" s="52"/>
+      <c r="I16" s="55">
         <v>298</v>
       </c>
-      <c r="J16" s="82">
+      <c r="J16" s="56">
         <v>1192000000</v>
       </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="85" t="s">
+      <c r="K16" s="56"/>
+      <c r="L16" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="85" t="s">
+      <c r="M16" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="86" t="s">
+      <c r="N16" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="77"/>
-    </row>
-    <row r="17" spans="1:15" s="83" customFormat="1" ht="16.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85" t="s">
+      <c r="O16" s="51"/>
+      <c r="P16" t="b" cm="1">
+        <f t="array" ref="P16">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A16:$O16))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A16:$O16))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="57" customFormat="1" ht="16.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="87" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="81">
+      <c r="H17" s="52"/>
+      <c r="I17" s="55">
         <v>298</v>
       </c>
-      <c r="J17" s="82">
+      <c r="J17" s="56">
         <v>3.54</v>
       </c>
-      <c r="K17" s="82"/>
-      <c r="L17" s="85" t="s">
+      <c r="K17" s="56"/>
+      <c r="L17" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="85" t="s">
+      <c r="M17" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="86" t="s">
+      <c r="N17" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="77"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.3">
+      <c r="O17" s="51"/>
+      <c r="P17" t="b" cm="1">
+        <f t="array" ref="P17">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A17:$O17))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A17:$O17))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.3">
       <c r="A18" s="36"/>
       <c r="B18" s="39" t="s">
         <v>86</v>
@@ -2529,8 +2591,12 @@
         <v>70</v>
       </c>
       <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.3">
+      <c r="P18" t="b" cm="1">
+        <f t="array" ref="P18">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A18:$O18))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A18:$O18))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.3">
       <c r="A19" s="36"/>
       <c r="B19" s="39" t="s">
         <v>86</v>
@@ -2566,8 +2632,12 @@
         <v>70</v>
       </c>
       <c r="O19" s="19"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.3">
+      <c r="P19" t="b" cm="1">
+        <f t="array" ref="P19">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A19:$O19))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A19:$O19))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.3">
       <c r="A20" s="36"/>
       <c r="B20" s="39" t="s">
         <v>88</v>
@@ -2603,8 +2673,12 @@
         <v>70</v>
       </c>
       <c r="O20" s="19"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.3">
+      <c r="P20" t="b" cm="1">
+        <f t="array" ref="P20">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A20:$O20))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A20:$O20))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.3">
       <c r="A21" s="36"/>
       <c r="B21" s="39" t="s">
         <v>88</v>
@@ -2640,8 +2714,12 @@
         <v>70</v>
       </c>
       <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.3">
+      <c r="P21" t="b" cm="1">
+        <f t="array" ref="P21">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A21:$O21))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A21:$O21))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.3">
       <c r="A22" s="35"/>
       <c r="B22" s="19" t="s">
         <v>91</v>
@@ -2676,8 +2754,12 @@
       <c r="N22" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="16.3">
+      <c r="P22" t="b" cm="1">
+        <f t="array" ref="P22">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A22:$O22))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A22:$O22))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.3">
       <c r="A23" s="35"/>
       <c r="B23" s="19" t="s">
         <v>91</v>
@@ -2712,8 +2794,12 @@
       <c r="N23" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="16.3">
+      <c r="P23" t="b" cm="1">
+        <f t="array" ref="P23">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A23:$O23))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A23:$O23))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.3">
       <c r="A24" s="35"/>
       <c r="B24" s="19" t="s">
         <v>91</v>
@@ -2748,8 +2834,12 @@
       <c r="N24" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="16.3">
+      <c r="P24" t="b" cm="1">
+        <f t="array" ref="P24">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A24:$O24))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A24:$O24))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.3">
       <c r="A25" s="35"/>
       <c r="B25" s="19" t="s">
         <v>91</v>
@@ -2784,8 +2874,12 @@
       <c r="N25" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="16.3">
+      <c r="P25" t="b" cm="1">
+        <f t="array" ref="P25">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A25:$O25))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A25:$O25))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.3">
       <c r="A26" s="35"/>
       <c r="B26" s="19" t="s">
         <v>91</v>
@@ -2797,8 +2891,8 @@
         <v>89</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="47" t="s">
-        <v>165</v>
+      <c r="F26" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>78</v>
@@ -2818,10 +2912,14 @@
         <v>98</v>
       </c>
       <c r="N26" s="44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="16.3">
+        <v>169</v>
+      </c>
+      <c r="P26" t="b" cm="1">
+        <f t="array" ref="P26">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A26:$O26))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A26:$O26))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.3">
       <c r="A27" s="35"/>
       <c r="B27" s="19" t="s">
         <v>99</v>
@@ -2856,8 +2954,12 @@
       <c r="N27" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="16.3">
+      <c r="P27" t="b" cm="1">
+        <f t="array" ref="P27">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A27:$O27))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A27:$O27))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.3">
       <c r="A28" s="35"/>
       <c r="B28" s="19" t="s">
         <v>99</v>
@@ -2892,8 +2994,12 @@
       <c r="N28" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="16.3">
+      <c r="P28" t="b" cm="1">
+        <f t="array" ref="P28">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A28:$O28))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A28:$O28))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.3">
       <c r="A29" s="35"/>
       <c r="B29" s="19" t="s">
         <v>99</v>
@@ -2928,8 +3034,12 @@
       <c r="N29" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="16.3">
+      <c r="P29" t="b" cm="1">
+        <f t="array" ref="P29">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A29:$O29))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A29:$O29))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.3">
       <c r="A30" s="35"/>
       <c r="B30" s="19" t="s">
         <v>99</v>
@@ -2964,8 +3074,12 @@
       <c r="N30" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="16.3">
+      <c r="P30" t="b" cm="1">
+        <f t="array" ref="P30">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A30:$O30))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A30:$O30))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.3">
       <c r="A31" s="35"/>
       <c r="B31" s="19" t="s">
         <v>99</v>
@@ -3000,8 +3114,12 @@
       <c r="N31" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="16.3">
+      <c r="P31" t="b" cm="1">
+        <f t="array" ref="P31">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A31:$O31))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A31:$O31))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.3">
       <c r="A32" s="35"/>
       <c r="B32" s="19" t="s">
         <v>100</v>
@@ -3036,8 +3154,12 @@
       <c r="N32" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="16.3">
+      <c r="P32" t="b" cm="1">
+        <f t="array" ref="P32">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A32:$O32))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A32:$O32))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.3">
       <c r="A33" s="35"/>
       <c r="B33" s="19" t="s">
         <v>100</v>
@@ -3072,8 +3194,12 @@
       <c r="N33" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="16.3">
+      <c r="P33" t="b" cm="1">
+        <f t="array" ref="P33">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A33:$O33))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A33:$O33))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.3">
       <c r="A34" s="35"/>
       <c r="B34" s="19" t="s">
         <v>100</v>
@@ -3108,8 +3234,12 @@
       <c r="N34" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="16.3">
+      <c r="P34" t="b" cm="1">
+        <f t="array" ref="P34">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A34:$O34))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A34:$O34))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.3">
       <c r="A35" s="35"/>
       <c r="B35" s="19" t="s">
         <v>100</v>
@@ -3144,8 +3274,12 @@
       <c r="N35" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="16.3">
+      <c r="P35" t="b" cm="1">
+        <f t="array" ref="P35">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A35:$O35))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A35:$O35))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.3">
       <c r="A36" s="35"/>
       <c r="B36" s="19" t="s">
         <v>100</v>
@@ -3180,8 +3314,12 @@
       <c r="N36" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="16.3">
+      <c r="P36" t="b" cm="1">
+        <f t="array" ref="P36">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A36:$O36))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A36:$O36))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.3">
       <c r="A37" s="35" t="s">
         <v>103</v>
       </c>
@@ -3218,8 +3356,12 @@
       <c r="N37" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="16.3">
+      <c r="P37" t="b" cm="1">
+        <f t="array" ref="P37">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A37:$O37))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A37:$O37))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.3">
       <c r="A38" s="35"/>
       <c r="B38" s="19" t="s">
         <v>104</v>
@@ -3254,8 +3396,12 @@
       <c r="N38" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="16.3">
+      <c r="P38" t="b" cm="1">
+        <f t="array" ref="P38">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A38:$O38))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A38:$O38))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.3">
       <c r="A39" s="35"/>
       <c r="B39" s="19" t="s">
         <v>105</v>
@@ -3290,8 +3436,12 @@
       <c r="N39" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="16.3">
+      <c r="P39" t="b" cm="1">
+        <f t="array" ref="P39">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A39:$O39))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A39:$O39))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.3">
       <c r="A40" s="35"/>
       <c r="B40" s="19" t="s">
         <v>106</v>
@@ -3326,8 +3476,12 @@
       <c r="N40" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="16.3">
+      <c r="P40" t="b" cm="1">
+        <f t="array" ref="P40">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A40:$O40))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A40:$O40))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.3">
       <c r="A41" s="35"/>
       <c r="B41" s="19" t="s">
         <v>107</v>
@@ -3362,8 +3516,12 @@
       <c r="N41" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="16.3">
+      <c r="P41" t="b" cm="1">
+        <f t="array" ref="P41">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A41:$O41))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A41:$O41))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.3">
       <c r="A42" s="35"/>
       <c r="B42" s="19" t="s">
         <v>108</v>
@@ -3398,8 +3556,12 @@
       <c r="N42" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="16.3">
+      <c r="P42" t="b" cm="1">
+        <f t="array" ref="P42">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A42:$O42))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A42:$O42))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.3">
       <c r="A43" s="35"/>
       <c r="B43" s="19" t="s">
         <v>109</v>
@@ -3434,8 +3596,12 @@
       <c r="N43" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="16.3">
+      <c r="P43" t="b" cm="1">
+        <f t="array" ref="P43">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A43:$O43))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A43:$O43))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.3">
       <c r="A44" s="35"/>
       <c r="B44" s="19" t="s">
         <v>110</v>
@@ -3470,8 +3636,12 @@
       <c r="N44" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="16.3">
+      <c r="P44" t="b" cm="1">
+        <f t="array" ref="P44">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A44:$O44))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A44:$O44))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.3">
       <c r="A45" s="35"/>
       <c r="B45" s="19" t="s">
         <v>111</v>
@@ -3506,8 +3676,12 @@
       <c r="N45" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="16.3">
+      <c r="P45" t="b" cm="1">
+        <f t="array" ref="P45">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A45:$O45))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A45:$O45))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.3">
       <c r="A46" s="35"/>
       <c r="B46" s="19" t="s">
         <v>112</v>
@@ -3542,80 +3716,92 @@
       <c r="N46" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" s="83" customFormat="1" ht="16.3">
-      <c r="A47" s="76"/>
-      <c r="B47" s="77" t="s">
+      <c r="P46" t="b" cm="1">
+        <f t="array" ref="P46">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A46:$O46))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A46:$O46))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="57" customFormat="1" ht="16.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="77"/>
-      <c r="F47" s="79" t="s">
+      <c r="E47" s="51"/>
+      <c r="F47" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="G47" s="80" t="s">
+      <c r="G47" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="78"/>
-      <c r="I47" s="81">
+      <c r="H47" s="52"/>
+      <c r="I47" s="55">
         <v>298</v>
       </c>
-      <c r="J47" s="82">
+      <c r="J47" s="56">
         <v>7940</v>
       </c>
-      <c r="K47" s="82"/>
-      <c r="L47" s="77" t="s">
+      <c r="K47" s="56"/>
+      <c r="L47" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="M47" s="77" t="s">
+      <c r="M47" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="N47" s="77" t="s">
+      <c r="N47" s="51" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" s="83" customFormat="1" ht="16.3">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77" t="s">
+      <c r="P47" t="b" cm="1">
+        <f t="array" ref="P47">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A47:$O47))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A47:$O47))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="57" customFormat="1" ht="16.3">
+      <c r="A48" s="50"/>
+      <c r="B48" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="79" t="s">
+      <c r="E48" s="51"/>
+      <c r="F48" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="G48" s="80" t="s">
+      <c r="G48" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="78"/>
-      <c r="I48" s="81">
+      <c r="H48" s="52"/>
+      <c r="I48" s="55">
         <v>298</v>
       </c>
-      <c r="J48" s="82">
+      <c r="J48" s="56">
         <v>7960</v>
       </c>
-      <c r="K48" s="82"/>
-      <c r="L48" s="77" t="s">
+      <c r="K48" s="56"/>
+      <c r="L48" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="M48" s="77" t="s">
+      <c r="M48" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="N48" s="77" t="s">
+      <c r="N48" s="51" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="16.3">
+      <c r="P48" t="b" cm="1">
+        <f t="array" ref="P48">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A48:$O48))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A48:$O48))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16.3">
       <c r="A49" s="35"/>
       <c r="B49" s="19" t="s">
         <v>115</v>
@@ -3650,8 +3836,12 @@
       <c r="N49" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="16.3">
+      <c r="P49" t="b" cm="1">
+        <f t="array" ref="P49">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A49:$O49))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A49:$O49))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.3">
       <c r="A50" s="35"/>
       <c r="B50" s="19" t="s">
         <v>116</v>
@@ -3686,8 +3876,12 @@
       <c r="N50" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="16.3">
+      <c r="P50" t="b" cm="1">
+        <f t="array" ref="P50">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A50:$O50))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A50:$O50))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16.3">
       <c r="A51" s="35"/>
       <c r="B51" s="19" t="s">
         <v>117</v>
@@ -3722,8 +3916,12 @@
       <c r="N51" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="16.3">
+      <c r="P51" t="b" cm="1">
+        <f t="array" ref="P51">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A51:$O51))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A51:$O51))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="16.3">
       <c r="A52" s="35"/>
       <c r="B52" s="19" t="s">
         <v>118</v>
@@ -3758,8 +3956,12 @@
       <c r="N52" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="16.3">
+      <c r="P52" t="b" cm="1">
+        <f t="array" ref="P52">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A52:$O52))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A52:$O52))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="16.3">
       <c r="A53" s="35" t="s">
         <v>103</v>
       </c>
@@ -3796,8 +3998,12 @@
       <c r="N53" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="16.3">
+      <c r="P53" t="b" cm="1">
+        <f t="array" ref="P53">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A53:$O53))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A53:$O53))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="16.3">
       <c r="A54" s="35"/>
       <c r="B54" s="19" t="s">
         <v>104</v>
@@ -3832,8 +4038,12 @@
       <c r="N54" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="16.3">
+      <c r="P54" t="b" cm="1">
+        <f t="array" ref="P54">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A54:$O54))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A54:$O54))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="16.3">
       <c r="A55" s="35"/>
       <c r="B55" s="19" t="s">
         <v>105</v>
@@ -3868,8 +4078,12 @@
       <c r="N55" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="16.3">
+      <c r="P55" t="b" cm="1">
+        <f t="array" ref="P55">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A55:$O55))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A55:$O55))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="16.3">
       <c r="A56" s="35"/>
       <c r="B56" s="19" t="s">
         <v>106</v>
@@ -3904,8 +4118,12 @@
       <c r="N56" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="16.3">
+      <c r="P56" t="b" cm="1">
+        <f t="array" ref="P56">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A56:$O56))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A56:$O56))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="16.3">
       <c r="A57" s="35"/>
       <c r="B57" s="19" t="s">
         <v>107</v>
@@ -3940,8 +4158,12 @@
       <c r="N57" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="16.3">
+      <c r="P57" t="b" cm="1">
+        <f t="array" ref="P57">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A57:$O57))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A57:$O57))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="16.3">
       <c r="A58" s="35"/>
       <c r="B58" s="19" t="s">
         <v>108</v>
@@ -3976,8 +4198,12 @@
       <c r="N58" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="16.3">
+      <c r="P58" t="b" cm="1">
+        <f t="array" ref="P58">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A58:$O58))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A58:$O58))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="16.3">
       <c r="A59" s="35"/>
       <c r="B59" s="19" t="s">
         <v>109</v>
@@ -4012,8 +4238,12 @@
       <c r="N59" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="16.3">
+      <c r="P59" t="b" cm="1">
+        <f t="array" ref="P59">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A59:$O59))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A59:$O59))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="16.3">
       <c r="A60" s="35"/>
       <c r="B60" s="19" t="s">
         <v>110</v>
@@ -4048,8 +4278,12 @@
       <c r="N60" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="16.3">
+      <c r="P60" t="b" cm="1">
+        <f t="array" ref="P60">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A60:$O60))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A60:$O60))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="16.3">
       <c r="A61" s="35"/>
       <c r="B61" s="19" t="s">
         <v>111</v>
@@ -4084,8 +4318,12 @@
       <c r="N61" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="16.3">
+      <c r="P61" t="b" cm="1">
+        <f t="array" ref="P61">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A61:$O61))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A61:$O61))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="16.3">
       <c r="A62" s="35"/>
       <c r="B62" s="19" t="s">
         <v>112</v>
@@ -4120,8 +4358,12 @@
       <c r="N62" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="16.3">
+      <c r="P62" t="b" cm="1">
+        <f t="array" ref="P62">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A62:$O62))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A62:$O62))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="16.3">
       <c r="A63" s="35"/>
       <c r="B63" s="19" t="s">
         <v>113</v>
@@ -4156,8 +4398,12 @@
       <c r="N63" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="16.3">
+      <c r="P63" t="b" cm="1">
+        <f t="array" ref="P63">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A63:$O63))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A63:$O63))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="16.3">
       <c r="A64" s="35"/>
       <c r="B64" s="19" t="s">
         <v>114</v>
@@ -4192,8 +4438,12 @@
       <c r="N64" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="16.3">
+      <c r="P64" t="b" cm="1">
+        <f t="array" ref="P64">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A64:$O64))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A64:$O64))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="16.3">
       <c r="A65" s="49"/>
       <c r="B65" s="19" t="s">
         <v>126</v>
@@ -4229,8 +4479,12 @@
       <c r="N65" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="16.3">
+      <c r="P65" t="b" cm="1">
+        <f t="array" ref="P65">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A65:$O65))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A65:$O65))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="16.3">
       <c r="A66" s="49"/>
       <c r="B66" s="19" t="s">
         <v>126</v>
@@ -4266,8 +4520,12 @@
       <c r="N66" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="16.3">
+      <c r="P66" t="b" cm="1">
+        <f t="array" ref="P66">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A66:$O66))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A66:$O66))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="16.3">
       <c r="A67" s="49"/>
       <c r="B67" s="19" t="s">
         <v>127</v>
@@ -4303,8 +4561,12 @@
       <c r="N67" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="16.3">
+      <c r="P67" t="b" cm="1">
+        <f t="array" ref="P67">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A67:$O67))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A67:$O67))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="16.3">
       <c r="A68" s="49"/>
       <c r="B68" s="19" t="s">
         <v>127</v>
@@ -4340,8 +4602,12 @@
       <c r="N68" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="16.3">
+      <c r="P68" t="b" cm="1">
+        <f t="array" ref="P68">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A68:$O68))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A68:$O68))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="16.3">
       <c r="A69" s="49"/>
       <c r="B69" s="19" t="s">
         <v>128</v>
@@ -4377,8 +4643,12 @@
       <c r="N69" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="16.3">
+      <c r="P69" t="b" cm="1">
+        <f t="array" ref="P69">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A69:$O69))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A69:$O69))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="16.3">
       <c r="A70" s="49"/>
       <c r="B70" s="19" t="s">
         <v>128</v>
@@ -4414,8 +4684,12 @@
       <c r="N70" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="16.3">
+      <c r="P70" t="b" cm="1">
+        <f t="array" ref="P70">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A70:$O70))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A70:$O70))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="16.3">
       <c r="A71" s="49"/>
       <c r="B71" s="19" t="s">
         <v>129</v>
@@ -4451,8 +4725,12 @@
       <c r="N71" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="16.3">
+      <c r="P71" t="b" cm="1">
+        <f t="array" ref="P71">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A71:$O71))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A71:$O71))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="16.3">
       <c r="A72" s="49">
         <v>3</v>
       </c>
@@ -4490,8 +4768,12 @@
       <c r="N72" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="16.3">
+      <c r="P72" t="b" cm="1">
+        <f t="array" ref="P72">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A72:$O72))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A72:$O72))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="16.3">
       <c r="B73" s="19" t="s">
         <v>131</v>
       </c>
@@ -4523,8 +4805,12 @@
       <c r="N73" s="44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="16.3">
+      <c r="P73" t="b" cm="1">
+        <f t="array" ref="P73">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A73:$O73))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A73:$O73))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="16.3">
       <c r="B74" s="19" t="s">
         <v>131</v>
       </c>
@@ -4556,8 +4842,12 @@
       <c r="N74" s="44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="16.3">
+      <c r="P74" t="b" cm="1">
+        <f t="array" ref="P74">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A74:$O74))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A74:$O74))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="16.3">
       <c r="B75" s="19" t="s">
         <v>131</v>
       </c>
@@ -4589,8 +4879,12 @@
       <c r="N75" s="44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="16.3">
+      <c r="P75" t="b" cm="1">
+        <f t="array" ref="P75">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A75:$O75))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A75:$O75))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="16.3">
       <c r="B76" s="19" t="s">
         <v>131</v>
       </c>
@@ -4622,8 +4916,12 @@
       <c r="N76" s="44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="16.3">
+      <c r="P76" t="b" cm="1">
+        <f t="array" ref="P76">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A76:$O76))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A76:$O76))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="16.3">
       <c r="B77" s="19" t="s">
         <v>137</v>
       </c>
@@ -4658,8 +4956,12 @@
       <c r="N77" s="44" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="16.3">
+      <c r="P77" t="b" cm="1">
+        <f t="array" ref="P77">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A77:$O77))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A77:$O77))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="16.3">
       <c r="B78" s="19" t="s">
         <v>145</v>
       </c>
@@ -4694,8 +4996,12 @@
       <c r="N78" s="44" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="16.3">
+      <c r="P78" t="b" cm="1">
+        <f t="array" ref="P78">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A78:$O78))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A78:$O78))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="16.3">
       <c r="B79" s="19" t="s">
         <v>144</v>
       </c>
@@ -4730,8 +5036,12 @@
       <c r="N79" s="44" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="16.3">
+      <c r="P79" t="b" cm="1">
+        <f t="array" ref="P79">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A79:$O79))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A79:$O79))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="16.3">
       <c r="B80" s="19" t="s">
         <v>143</v>
       </c>
@@ -4766,8 +5076,12 @@
       <c r="N80" s="44" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="16.3">
+      <c r="P80" t="b" cm="1">
+        <f t="array" ref="P80">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A80:$O80))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A80:$O80))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="16.3">
       <c r="B81" s="19" t="s">
         <v>146</v>
       </c>
@@ -4802,8 +5116,12 @@
       <c r="N81" s="44" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="16.3">
+      <c r="P81" t="b" cm="1">
+        <f t="array" ref="P81">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A81:$O81))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A81:$O81))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="16.3">
       <c r="A82" s="35"/>
       <c r="B82" s="19" t="s">
         <v>148</v>
@@ -4840,8 +5158,12 @@
       <c r="N82" s="44" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="16.3">
+      <c r="P82" t="b" cm="1">
+        <f t="array" ref="P82">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A82:$O82))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A82:$O82))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="16.3">
       <c r="A83" s="35"/>
       <c r="B83" s="19" t="s">
         <v>149</v>
@@ -4878,8 +5200,12 @@
       <c r="N83" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="16.3">
+      <c r="P83" t="b" cm="1">
+        <f t="array" ref="P83">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A83:$O83))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A83:$O83))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="16.3">
       <c r="A84" s="35"/>
       <c r="B84" s="19" t="s">
         <v>150</v>
@@ -4916,8 +5242,12 @@
       <c r="N84" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="16.3">
+      <c r="P84" t="b" cm="1">
+        <f t="array" ref="P84">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A84:$O84))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A84:$O84))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="16.3">
       <c r="A85" s="35"/>
       <c r="B85" s="19" t="s">
         <v>151</v>
@@ -4954,8 +5284,12 @@
       <c r="N85" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="16.3">
+      <c r="P85" t="b" cm="1">
+        <f t="array" ref="P85">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A85:$O85))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A85:$O85))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="16.3">
       <c r="A86" s="35"/>
       <c r="B86" s="19" t="s">
         <v>152</v>
@@ -4992,8 +5326,12 @@
       <c r="N86" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="16.3">
+      <c r="P86" t="b" cm="1">
+        <f t="array" ref="P86">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A86:$O86))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A86:$O86))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="16.3">
       <c r="A87" s="35"/>
       <c r="B87" s="19" t="s">
         <v>148</v>
@@ -5028,8 +5366,12 @@
       <c r="N87" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="16.3">
+      <c r="P87" t="b" cm="1">
+        <f t="array" ref="P87">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A87:$O87))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A87:$O87))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="16.3">
       <c r="A88" s="35"/>
       <c r="B88" s="19" t="s">
         <v>149</v>
@@ -5064,8 +5406,12 @@
       <c r="N88" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="16.3">
+      <c r="P88" t="b" cm="1">
+        <f t="array" ref="P88">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A88:$O88))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A88:$O88))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="16.3">
       <c r="A89" s="35"/>
       <c r="B89" s="19" t="s">
         <v>150</v>
@@ -5100,8 +5446,12 @@
       <c r="N89" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="16.3">
+      <c r="P89" t="b" cm="1">
+        <f t="array" ref="P89">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A89:$O89))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A89:$O89))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="16.3">
       <c r="A90" s="35"/>
       <c r="B90" s="19" t="s">
         <v>151</v>
@@ -5136,8 +5486,12 @@
       <c r="N90" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="16.3">
+      <c r="P90" t="b" cm="1">
+        <f t="array" ref="P90">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A90:$O90))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A90:$O90))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="16.3">
       <c r="A91" s="35"/>
       <c r="B91" s="19" t="s">
         <v>152</v>
@@ -5172,8 +5526,12 @@
       <c r="N91" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="16.3">
+      <c r="P91" t="b" cm="1">
+        <f t="array" ref="P91">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A91:$O91))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A91:$O91))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="16.3">
       <c r="A92" s="35"/>
       <c r="B92" s="19" t="s">
         <v>148</v>
@@ -5208,8 +5566,12 @@
       <c r="N92" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="16.3">
+      <c r="P92" t="b" cm="1">
+        <f t="array" ref="P92">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A92:$O92))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A92:$O92))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="16.3">
       <c r="A93" s="35"/>
       <c r="B93" s="19" t="s">
         <v>149</v>
@@ -5244,8 +5606,12 @@
       <c r="N93" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="16.3">
+      <c r="P93" t="b" cm="1">
+        <f t="array" ref="P93">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A93:$O93))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A93:$O93))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="16.3">
       <c r="A94" s="35"/>
       <c r="B94" s="19" t="s">
         <v>150</v>
@@ -5280,8 +5646,12 @@
       <c r="N94" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="16.3">
+      <c r="P94" t="b" cm="1">
+        <f t="array" ref="P94">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A94:$O94))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A94:$O94))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="16.3">
       <c r="A95" s="35"/>
       <c r="B95" s="19" t="s">
         <v>151</v>
@@ -5316,8 +5686,12 @@
       <c r="N95" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="16.3">
+      <c r="P95" t="b" cm="1">
+        <f t="array" ref="P95">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A95:$O95))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A95:$O95))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="16.3">
       <c r="A96" s="35"/>
       <c r="B96" s="19" t="s">
         <v>152</v>
@@ -5352,8 +5726,12 @@
       <c r="N96" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="16.3">
+      <c r="P96" t="b" cm="1">
+        <f t="array" ref="P96">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A96:$O96))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A96:$O96))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="16.3">
       <c r="A97" s="35"/>
       <c r="B97" s="19" t="s">
         <v>150</v>
@@ -5388,8 +5766,12 @@
       <c r="N97" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="16.3">
+      <c r="P97" t="b" cm="1">
+        <f t="array" ref="P97">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A97:$O97))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A97:$O97))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="16.3">
       <c r="A98" s="35"/>
       <c r="B98" s="19" t="s">
         <v>151</v>
@@ -5424,8 +5806,12 @@
       <c r="N98" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="16.3">
+      <c r="P98" t="b" cm="1">
+        <f t="array" ref="P98">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A98:$O98))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A98:$O98))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="16.3">
       <c r="A99" s="35"/>
       <c r="B99" s="19" t="s">
         <v>152</v>
@@ -5460,8 +5846,12 @@
       <c r="N99" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="16.3">
+      <c r="P99" t="b" cm="1">
+        <f t="array" ref="P99">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A99:$O99))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A99:$O99))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="16.3">
       <c r="A100" s="35"/>
       <c r="B100" s="19"/>
       <c r="C100" s="32"/>
@@ -5476,7 +5866,7 @@
       <c r="M100" s="19"/>
       <c r="N100" s="19"/>
     </row>
-    <row r="101" spans="1:14" ht="16.3">
+    <row r="101" spans="1:16" ht="16.3">
       <c r="A101" s="35"/>
       <c r="B101" s="19"/>
       <c r="C101" s="32"/>
@@ -5491,7 +5881,7 @@
       <c r="M101" s="19"/>
       <c r="N101" s="19"/>
     </row>
-    <row r="102" spans="1:14" ht="16.3">
+    <row r="102" spans="1:16" ht="16.3">
       <c r="A102" s="35"/>
       <c r="B102" s="19"/>
       <c r="C102" s="32"/>
@@ -5507,7 +5897,7 @@
       <c r="M102" s="19"/>
       <c r="N102" s="19"/>
     </row>
-    <row r="103" spans="1:14" ht="16.3">
+    <row r="103" spans="1:16" ht="16.3">
       <c r="A103" s="35"/>
       <c r="B103" s="19"/>
       <c r="C103" s="32"/>
@@ -5523,7 +5913,7 @@
       <c r="M103" s="19"/>
       <c r="N103" s="19"/>
     </row>
-    <row r="104" spans="1:14" ht="16.3">
+    <row r="104" spans="1:16" ht="16.3">
       <c r="A104" s="35"/>
       <c r="B104" s="19"/>
       <c r="C104" s="32"/>
@@ -5539,7 +5929,7 @@
       <c r="M104" s="19"/>
       <c r="N104" s="19"/>
     </row>
-    <row r="105" spans="1:14" ht="16.3">
+    <row r="105" spans="1:16" ht="16.3">
       <c r="A105" s="35"/>
       <c r="B105" s="19"/>
       <c r="C105" s="32"/>
@@ -5555,7 +5945,7 @@
       <c r="M105" s="19"/>
       <c r="N105" s="19"/>
     </row>
-    <row r="106" spans="1:14" ht="16.3">
+    <row r="106" spans="1:16" ht="16.3">
       <c r="A106" s="35"/>
       <c r="B106" s="19"/>
       <c r="C106" s="32"/>
@@ -5571,7 +5961,7 @@
       <c r="M106" s="19"/>
       <c r="N106" s="19"/>
     </row>
-    <row r="107" spans="1:14" ht="16.3">
+    <row r="107" spans="1:16" ht="16.3">
       <c r="A107" s="35"/>
       <c r="B107" s="19"/>
       <c r="C107" s="32"/>
@@ -5587,7 +5977,7 @@
       <c r="M107" s="19"/>
       <c r="N107" s="19"/>
     </row>
-    <row r="108" spans="1:14" ht="16.3">
+    <row r="108" spans="1:16" ht="16.3">
       <c r="A108" s="35"/>
       <c r="B108" s="19"/>
       <c r="C108" s="32"/>
@@ -5603,7 +5993,7 @@
       <c r="M108" s="19"/>
       <c r="N108" s="19"/>
     </row>
-    <row r="109" spans="1:14" ht="16.3">
+    <row r="109" spans="1:16" ht="16.3">
       <c r="A109" s="35"/>
       <c r="B109" s="19"/>
       <c r="C109" s="32"/>
@@ -5619,7 +6009,7 @@
       <c r="M109" s="19"/>
       <c r="N109" s="19"/>
     </row>
-    <row r="110" spans="1:14" ht="16.3">
+    <row r="110" spans="1:16" ht="16.3">
       <c r="A110" s="35"/>
       <c r="B110" s="19"/>
       <c r="C110" s="32"/>
@@ -5635,7 +6025,7 @@
       <c r="M110" s="19"/>
       <c r="N110" s="44"/>
     </row>
-    <row r="111" spans="1:14" ht="16.3">
+    <row r="111" spans="1:16" ht="16.3">
       <c r="A111" s="35"/>
       <c r="B111" s="19"/>
       <c r="C111" s="32"/>
@@ -5651,7 +6041,7 @@
       <c r="M111" s="19"/>
       <c r="N111" s="44"/>
     </row>
-    <row r="112" spans="1:14" ht="16.3">
+    <row r="112" spans="1:16" ht="16.3">
       <c r="A112" s="35"/>
       <c r="B112" s="19"/>
       <c r="C112" s="32"/>
@@ -10205,6 +10595,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10219,14 +10614,17 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A47:XFD47">
+  <conditionalFormatting sqref="A47:O47 Q47:XFD47">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10235,14 +10633,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Leon_Contribution_November.xlsx
+++ b/Leon_Contribution_November.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB60D3B6-4921-432D-98DC-B2BE49FB25FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD98A3DD-3D93-4058-93B8-AF9571E907F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="171">
   <si>
     <t>Name:</t>
   </si>
@@ -776,6 +776,10 @@
       </rPr>
       <t xml:space="preserve"> Y</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.matchar.2024.114393</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1571,6 +1575,34 @@
     <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1622,34 +1654,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1934,7 +1938,7 @@
   <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1970,19 +1974,19 @@
       <c r="B2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1992,17 +1996,17 @@
       <c r="B3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -2020,43 +2024,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="N5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="63" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2067,19 +2071,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="81"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2124,7 +2128,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="82"/>
+      <c r="O7" s="65"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2137,35 +2141,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="77"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="83" t="s">
+      <c r="P8" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="85"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="68"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2265,7 +2269,7 @@
         <v>70</v>
       </c>
       <c r="O10" s="19"/>
-      <c r="P10" s="88"/>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="1:20" ht="16.3">
       <c r="A11" s="36"/>
@@ -2892,7 +2896,7 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="32" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>78</v>
@@ -3091,7 +3095,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="32" t="s">
         <v>71</v>
       </c>
       <c r="G31" s="40" t="s">
@@ -3112,7 +3116,7 @@
         <v>98</v>
       </c>
       <c r="N31" s="44" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="P31" t="b" cm="1">
         <f t="array" ref="P31">AND(ISNUMBER(SEARCH("Pa",CONCATENATE($A31:$O31))),ISNUMBER(SEARCH("compressive ductility",CONCATENATE($A31:$O31))))</f>
@@ -3291,7 +3295,7 @@
         <v>89</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="32" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="40" t="s">
@@ -10595,11 +10599,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10614,6 +10613,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A47:O47 Q47:XFD47">

--- a/Leon_Contribution_November.xlsx
+++ b/Leon_Contribution_November.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD98A3DD-3D93-4058-93B8-AF9571E907F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCF9B4-ABE6-4130-A7F7-5578F2DF9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="172">
   <si>
     <t>Name:</t>
   </si>
@@ -784,6 +784,10 @@
   </si>
   <si>
     <t>10.1016/j.matchar.2024.114393</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimate compressive strength</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1576,33 +1580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1652,6 +1629,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1938,7 +1942,7 @@
   <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1974,19 +1978,19 @@
       <c r="B2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1996,17 +2000,17 @@
       <c r="B3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -2024,43 +2028,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="81" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2071,19 +2075,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="64"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="82"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2128,7 +2132,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="65"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2141,35 +2145,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86" t="s">
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="78"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="68"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="86"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2896,7 +2900,7 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="32" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>78</v>
@@ -3096,7 +3100,7 @@
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="32" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>78</v>
@@ -3296,7 +3300,7 @@
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="32" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>78</v>
@@ -10599,6 +10603,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10613,11 +10622,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A47:O47 Q47:XFD47">

--- a/Leon_Contribution_November.xlsx
+++ b/Leon_Contribution_November.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCF9B4-ABE6-4130-A7F7-5578F2DF9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13776374-D935-44A7-A3B7-4F51BF0E3465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="19" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>98</v>
@@ -3352,7 +3352,7 @@
         <v>298</v>
       </c>
       <c r="J37" s="31">
-        <v>8180</v>
+        <v>8181</v>
       </c>
       <c r="K37" s="31"/>
       <c r="L37" s="19" t="s">
